--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\AppliedProbabilityBIUEx4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="11040" windowHeight="8835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Iteration</t>
   </si>
@@ -84,6 +89,9 @@
   <si>
     <t>value</t>
   </si>
+  <si>
+    <t>threshold</t>
+  </si>
 </sst>
 </file>
 
@@ -93,11 +101,11 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -106,7 +114,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -114,7 +122,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -203,6 +211,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -210,7 +221,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -420,11 +431,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="204944512"/>
-        <c:axId val="204946432"/>
+        <c:axId val="386854912"/>
+        <c:axId val="386850560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="204944512"/>
+        <c:axId val="386854912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -434,12 +445,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204946432"/>
+        <c:crossAx val="386850560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="204946432"/>
+        <c:axId val="386850560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -449,7 +460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204944512"/>
+        <c:crossAx val="386854912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -485,7 +496,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -517,7 +528,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -612,20 +622,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="192414464"/>
-        <c:axId val="192416000"/>
+        <c:axId val="217488128"/>
+        <c:axId val="449866704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192414464"/>
+        <c:axId val="217488128"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192416000"/>
+        <c:crossAx val="449866704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -633,7 +644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192416000"/>
+        <c:axId val="449866704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -644,7 +655,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192414464"/>
+        <c:crossAx val="217488128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -664,7 +675,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -696,7 +707,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -791,20 +801,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="192427904"/>
-        <c:axId val="192429440"/>
+        <c:axId val="449863984"/>
+        <c:axId val="449860720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192427904"/>
+        <c:axId val="449863984"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192429440"/>
+        <c:crossAx val="449860720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -812,7 +823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192429440"/>
+        <c:axId val="449860720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -823,7 +834,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192427904"/>
+        <c:crossAx val="449863984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -843,7 +854,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -965,11 +976,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202803456"/>
-        <c:axId val="202846592"/>
+        <c:axId val="449862352"/>
+        <c:axId val="449862896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202803456"/>
+        <c:axId val="449862352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -978,7 +989,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202846592"/>
+        <c:crossAx val="449862896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -986,7 +997,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202846592"/>
+        <c:axId val="449862896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -997,7 +1008,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202803456"/>
+        <c:crossAx val="449862352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1022,7 +1033,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1217,11 +1228,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="189357056"/>
-        <c:axId val="189391616"/>
+        <c:axId val="386854368"/>
+        <c:axId val="386855456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189357056"/>
+        <c:axId val="386854368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,12 +1242,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189391616"/>
+        <c:crossAx val="386855456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189391616"/>
+        <c:axId val="386855456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="500"/>
@@ -1248,7 +1259,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189357056"/>
+        <c:crossAx val="386854368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1278,7 +1289,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1400,20 +1411,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="204870400"/>
-        <c:axId val="204871936"/>
+        <c:axId val="386851648"/>
+        <c:axId val="386849472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204870400"/>
+        <c:axId val="386851648"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204871936"/>
+        <c:crossAx val="386849472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1421,7 +1433,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204871936"/>
+        <c:axId val="386849472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1432,7 +1444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204870400"/>
+        <c:crossAx val="386851648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1452,7 +1464,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1574,20 +1586,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="204893568"/>
-        <c:axId val="204993664"/>
+        <c:axId val="386852736"/>
+        <c:axId val="386853824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204893568"/>
+        <c:axId val="386852736"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204993664"/>
+        <c:crossAx val="386853824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1595,7 +1608,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204993664"/>
+        <c:axId val="386853824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1606,7 +1619,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204893568"/>
+        <c:crossAx val="386852736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1626,7 +1639,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1748,20 +1761,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="192160512"/>
-        <c:axId val="192162048"/>
+        <c:axId val="384196528"/>
+        <c:axId val="384197072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192160512"/>
+        <c:axId val="384196528"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192162048"/>
+        <c:crossAx val="384197072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1769,7 +1783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192162048"/>
+        <c:axId val="384197072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1780,7 +1794,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192160512"/>
+        <c:crossAx val="384196528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1800,7 +1814,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1922,20 +1936,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="192178048"/>
-        <c:axId val="192179584"/>
+        <c:axId val="384197616"/>
+        <c:axId val="384198160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192178048"/>
+        <c:axId val="384197616"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192179584"/>
+        <c:crossAx val="384198160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1943,7 +1958,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192179584"/>
+        <c:axId val="384198160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1954,7 +1969,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192178048"/>
+        <c:crossAx val="384197616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1974,7 +1989,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2096,20 +2111,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="192206336"/>
-        <c:axId val="192207872"/>
+        <c:axId val="384200880"/>
+        <c:axId val="384195440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192206336"/>
+        <c:axId val="384200880"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192207872"/>
+        <c:crossAx val="384195440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2117,7 +2133,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192207872"/>
+        <c:axId val="384195440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2128,7 +2144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192206336"/>
+        <c:crossAx val="384200880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2148,7 +2164,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2270,20 +2286,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="192359040"/>
-        <c:axId val="192360832"/>
+        <c:axId val="384194896"/>
+        <c:axId val="384200336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192359040"/>
+        <c:axId val="384194896"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192360832"/>
+        <c:crossAx val="384200336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2291,7 +2308,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192360832"/>
+        <c:axId val="384200336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2302,7 +2319,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192359040"/>
+        <c:crossAx val="384194896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2322,7 +2339,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="he-IL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2354,7 +2371,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2449,20 +2465,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="192368000"/>
-        <c:axId val="192386176"/>
+        <c:axId val="217486496"/>
+        <c:axId val="217487040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192368000"/>
+        <c:axId val="217486496"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192386176"/>
+        <c:crossAx val="217487040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2470,7 +2487,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192386176"/>
+        <c:axId val="217487040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2481,7 +2498,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192368000"/>
+        <c:crossAx val="217486496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2895,7 +2912,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2937,7 +2954,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2972,7 +2989,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3183,25 +3200,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.875" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" customWidth="1"/>
     <col min="23" max="23" width="9" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3215,7 +3232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3229,7 +3246,7 @@
         <v>0.21092278719400001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3243,7 +3260,7 @@
         <v>0.32203389830500001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3257,7 +3274,7 @@
         <v>0.43549905838000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3271,7 +3288,7 @@
         <v>0.55367231638400005</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3285,7 +3302,7 @@
         <v>0.61205273069699995</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3299,7 +3316,7 @@
         <v>0.63418079096000002</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3313,7 +3330,7 @@
         <v>0.65160075329599998</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3327,7 +3344,7 @@
         <v>0.66666666666700003</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3341,7 +3358,7 @@
         <v>0.67419962335200001</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3355,7 +3372,7 @@
         <v>0.68267419962300002</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3369,7 +3386,7 @@
         <v>0.69350282485900006</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3383,7 +3400,7 @@
         <v>0.69679849340900002</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3397,7 +3414,7 @@
         <v>0.70056497175099997</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3411,7 +3428,7 @@
         <v>0.70574387947299999</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3425,7 +3442,7 @@
         <v>0.70762711864399996</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3439,7 +3456,7 @@
         <v>0.70951035781500005</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3453,7 +3470,7 @@
         <v>0.71092278719400004</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3467,7 +3484,7 @@
         <v>0.71186440677999996</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3481,7 +3498,7 @@
         <v>0.71186440677999996</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3495,7 +3512,7 @@
         <v>0.71327683615799997</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3509,7 +3526,7 @@
         <v>0.71468926553699996</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3523,23 +3540,23 @@
         <v>0.71468926553699996</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="34" spans="4:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:18" ht="18.75">
       <c r="I34" s="8"/>
       <c r="J34" s="9" t="s">
         <v>17</v>
@@ -3547,7 +3564,7 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
     </row>
-    <row r="35" spans="4:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:18">
       <c r="I35" s="6" t="s">
         <v>22</v>
       </c>
@@ -3557,7 +3574,7 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:18">
       <c r="I36" s="7">
         <v>10</v>
       </c>
@@ -3567,7 +3584,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:18">
       <c r="I37" s="7">
         <v>6800</v>
       </c>
@@ -3577,7 +3594,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:18">
       <c r="I38" s="7">
         <v>1.1000000000000001</v>
       </c>
@@ -3587,27 +3604,33 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:18">
+      <c r="I39" s="7">
+        <v>20</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:18">
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:18">
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:18">
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
     </row>
-    <row r="43" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:18">
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
     </row>
-    <row r="44" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:18">
       <c r="D44" t="s">
         <v>14</v>
       </c>
@@ -3646,7 +3669,7 @@
       </c>
       <c r="P44" s="4"/>
     </row>
-    <row r="45" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:18">
       <c r="E45">
         <f>MAX(G45:O45)</f>
         <v>364</v>
@@ -3686,7 +3709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:18">
       <c r="E46">
         <f>MAX(G46:O46)</f>
         <v>247</v>
@@ -3726,7 +3749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:18">
       <c r="E47">
         <f t="shared" ref="E47:E53" si="0">MAX(G47:O47)</f>
         <v>215</v>
@@ -3766,7 +3789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="4:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:18">
       <c r="E48">
         <f t="shared" si="0"/>
         <v>191</v>
@@ -3806,7 +3829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:16">
       <c r="E49">
         <f t="shared" si="0"/>
         <v>155</v>
@@ -3846,7 +3869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:16">
       <c r="E50">
         <f t="shared" si="0"/>
         <v>123</v>
@@ -3886,7 +3909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:16">
       <c r="E51">
         <f t="shared" si="0"/>
         <v>92</v>
@@ -3926,7 +3949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:16">
       <c r="E52">
         <f t="shared" si="0"/>
         <v>89</v>
@@ -3966,7 +3989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:16">
       <c r="E53">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4006,7 +4029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:16">
       <c r="D54">
         <f>(E54/F54)*100</f>
         <v>71.468926553672318</v>
